--- a/biology/Botanique/Calceolaria_biflora/Calceolaria_biflora.xlsx
+++ b/biology/Botanique/Calceolaria_biflora/Calceolaria_biflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Calceolaria biflora est une plante herbacée de la famille des Calceolariaceae [APG III], ou des Scrophulariaceae, selon la classification classique. C’est une espèce qui appartient aux calcéolaires, soit le genre Calceolaria. Elle pousse au Chili et en Argentine.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est appelée Lady's Slipper en anglais ; Zapatito de Reina ou Zapatito de la Virgen en espagnol.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée, pérenne avec de fines tiges de 55 cm de haut. Les feuilles sont groupées en rosace à la base du sol, mesurent entre 5 et 10 cm de long, sont bien nervurées sur le dessus avec de petits poils. Les fleurs sont de couleur jaune bien visible. Elles se disposent par groupe de 4 à 10 en haut de la tige principale. Le calice est composé de 4 sépales et la corolle présente 2 pétales dont le pétale supérieur est plus petit que le pétale inférieur qui a la forme caractéristique d’une « bourse ». Les fleurs présentent des taches rouge orangé qui attirent les insectes pour y butiner le nectar.
 Les fruits sont des capsules de 1,5 cm de long de couleur châtain avec un calice persistant. La floraison débute au printemps et la fructification se fait l'été.
@@ -575,7 +591,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est observée en Terre de Feu jusqu'au canal Beagle, dans toute la Patagonie argentine et seulement dans la province de Última Esperanza au Chili.
 Elle se développe dans les prairies et les clairières et aussi dans la pampa.
@@ -607,7 +625,9 @@
           <t>CULTURE</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones de rusticité : 4-9
 Exposition : mi-ombre 
@@ -641,7 +661,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est utilisée pour l'ornement des jardins: jardin alpin, rocaille, sous-bois.
 </t>
